--- a/새 폴더/자소서 문항 통합.xlsx
+++ b/새 폴더/자소서 문항 통합.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Share\취업특강\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="24795" windowHeight="12120"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="15576" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="통합" sheetId="4" r:id="rId1"/>
@@ -232,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -408,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,11 +649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="91" style="2" customWidth="1"/>
@@ -672,7 +667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33">
+    <row r="2" spans="1:2" ht="34.799999999999997">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -696,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33">
+    <row r="5" spans="1:2" ht="34.799999999999997">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -704,7 +699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33">
+    <row r="6" spans="1:2" ht="34.799999999999997">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -720,7 +715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="33">
+    <row r="8" spans="1:2" ht="34.799999999999997">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -728,7 +723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="33">
+    <row r="9" spans="1:2" ht="34.799999999999997">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -736,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="33">
+    <row r="10" spans="1:2" ht="34.799999999999997">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -744,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="49.5">
+    <row r="11" spans="1:2" ht="34.799999999999997">
       <c r="A11" s="6" t="s">
         <v>52</v>
       </c>
@@ -752,7 +747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="49.5">
+    <row r="12" spans="1:2" ht="52.2">
       <c r="A12" s="6" t="s">
         <v>52</v>
       </c>
@@ -760,7 +755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5">
+    <row r="13" spans="1:2" ht="27.6">
       <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
@@ -788,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="66">
+    <row r="17" spans="1:2" ht="69.599999999999994">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -804,7 +799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="49.5">
+    <row r="19" spans="1:2" ht="52.2">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -848,7 +843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="66">
+    <row r="25" spans="1:2" ht="69.599999999999994">
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
@@ -856,7 +851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="33">
+    <row r="26" spans="1:2" ht="34.799999999999997">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -864,7 +859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="49.5">
+    <row r="27" spans="1:2" ht="52.2">
       <c r="A27" s="6" t="s">
         <v>41</v>
       </c>
@@ -872,7 +867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="33">
+    <row r="28" spans="1:2" ht="34.799999999999997">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
@@ -892,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="33">
+    <row r="31" spans="1:2" ht="34.799999999999997">
       <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
@@ -900,7 +895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="28.5">
+    <row r="32" spans="1:2" ht="27.6">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -908,7 +903,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="33">
+    <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
@@ -920,7 +915,7 @@
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:2" ht="33">
+    <row r="35" spans="1:2" ht="34.799999999999997">
       <c r="A35" s="6" t="s">
         <v>39</v>
       </c>
@@ -932,7 +927,7 @@
       <c r="A36" s="6"/>
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="1:2" ht="66">
+    <row r="37" spans="1:2" ht="69.599999999999994">
       <c r="A37" s="6" t="s">
         <v>24</v>
       </c>
@@ -955,12 +950,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="132.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="132.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1018,9 +1013,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
